--- a/SNES_RGB_BOM.xlsx
+++ b/SNES_RGB_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/417a9728996812f9/My Documents/EAGLE/projects/SNES_RGB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B468FB76-9889-4C9D-95C5-D64926C52AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{B468FB76-9889-4C9D-95C5-D64926C52AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B3A3EFC-5C57-4F12-8855-84E72E2989A5}"/>
   <bookViews>
-    <workbookView xWindow="3150" yWindow="540" windowWidth="18780" windowHeight="20940" xr2:uid="{686FB3B0-9C46-4D3B-8C1B-2C05AE7B2F3E}"/>
+    <workbookView xWindow="30585" yWindow="60" windowWidth="21015" windowHeight="20940" xr2:uid="{686FB3B0-9C46-4D3B-8C1B-2C05AE7B2F3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
   <si>
     <t>Qty</t>
   </si>
@@ -136,6 +136,12 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>v 4.7k</t>
   </si>
 </sst>
 </file>
@@ -497,22 +503,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9189FDE-95EF-40CA-9718-5BA0F9D181E9}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="38.7109375" customWidth="1"/>
-    <col min="7" max="7" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="38.7109375" customWidth="1"/>
+    <col min="8" max="8" width="38.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,20 +529,20 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>31</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -546,20 +553,23 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="F2">
-        <f>E2*A2</f>
+      <c r="G2">
+        <f>F2*A2</f>
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -570,20 +580,23 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1.6E-2</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F12" si="0">E3*A3</f>
+      <c r="G3">
+        <f t="shared" ref="G3:G12" si="0">F3*A3</f>
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -594,20 +607,23 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <f t="shared" si="0"/>
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -618,20 +634,23 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.67</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <f t="shared" si="0"/>
         <v>0.67</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -642,20 +661,23 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
         <v>20</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>2.4E-2</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <f t="shared" si="0"/>
         <v>2.4E-2</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -666,20 +688,23 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.6E-2</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <f t="shared" si="0"/>
         <v>1.6E-2</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -690,20 +715,23 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
         <v>23</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1.6E-2</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <f t="shared" si="0"/>
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -714,20 +742,23 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
         <v>24</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1.6E-2</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <f t="shared" si="0"/>
         <v>1.6E-2</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -738,20 +769,23 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
         <v>32</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>2.4E-2</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <f t="shared" si="0"/>
         <v>7.2000000000000008E-2</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -762,20 +796,23 @@
         <v>5</v>
       </c>
       <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
         <v>26</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <f t="shared" si="0"/>
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -785,23 +822,23 @@
       <c r="C12" t="s">
         <v>28</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>29</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.53</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <f t="shared" si="0"/>
         <v>0.53</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
         <v>33</v>
       </c>
-      <c r="F14">
-        <f>SUM(F2:F12)</f>
+      <c r="G14">
+        <f>SUM(G2:G12)</f>
         <v>1.4610000000000003</v>
       </c>
     </row>
